--- a/Documentation/TimeRecord.xlsx
+++ b/Documentation/TimeRecord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Item Woked On</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>Modeling</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time Worked</t>
+  </si>
+  <si>
+    <t>Key Controls</t>
   </si>
 </sst>
 </file>
@@ -63,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,9 +387,11 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,8 +401,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>41287</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -399,6 +425,121 @@
       </c>
       <c r="C3">
         <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41288</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41289</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>41290</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>41291</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>41292</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>41293</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>41294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>41295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>41296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>41297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>41298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>41299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>41300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>41301</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>41302</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>41303</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>41304</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>41305</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/TimeRecord.xlsx
+++ b/Documentation/TimeRecord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Item Woked On</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Key Controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drag and Drop </t>
+  </si>
+  <si>
+    <t>Breaking Down</t>
+  </si>
+  <si>
+    <t>Building Back Together</t>
   </si>
 </sst>
 </file>
@@ -379,12 +388,12 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
@@ -451,6 +460,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
       <c r="E5" s="1">
         <v>41290</v>
       </c>
@@ -459,6 +474,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
       <c r="E6" s="1">
         <v>41291</v>
       </c>
@@ -467,6 +488,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
       <c r="E7" s="1">
         <v>41292</v>
       </c>
@@ -485,6 +512,9 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="1">
         <v>41294</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">

--- a/Documentation/TimeRecord.xlsx
+++ b/Documentation/TimeRecord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Item Woked On</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Building Back Together</t>
+  </si>
+  <si>
+    <t>NA YET</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +403,7 @@
     <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E2" s="1">
         <v>41287</v>
       </c>
@@ -425,7 +428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -442,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -459,13 +462,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1">
         <v>41290</v>
       </c>
@@ -473,13 +479,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="E6" s="1">
         <v>41291</v>
       </c>
@@ -487,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -501,15 +510,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
         <v>41293</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>SUM(F2:F8)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E9" s="1">
         <v>41294</v>
       </c>
@@ -517,37 +530,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
         <v>41295</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="1">
         <v>41296</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
         <v>41297</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" s="1">
         <v>41298</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
         <v>41299</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>41300</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <f>SUM(F9:F15)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
         <v>41301</v>
       </c>

--- a/Documentation/TimeRecord.xlsx
+++ b/Documentation/TimeRecord.xlsx
@@ -48,7 +48,7 @@
     <t>Building Back Together</t>
   </si>
   <si>
-    <t>NA YET</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>41291</v>

--- a/Documentation/TimeRecord.xlsx
+++ b/Documentation/TimeRecord.xlsx
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,26 +586,64 @@
       <c r="E16" s="1">
         <v>41301</v>
       </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <v>41302</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
         <v>41303</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" s="1">
         <v>41304</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E20" s="1">
         <v>41305</v>
       </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>41306</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>41307</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f>SUM(F16:F22)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
